--- a/biology/Botanique/Mercuriale/Mercuriale.xlsx
+++ b/biology/Botanique/Mercuriale/Mercuriale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mercurialis
 Mercurialis (les mercuriales) est un genre de plantes dicotylédones de la famille des Euphorbiaceae, originaire de l'Ancien Monde.
@@ -517,9 +529,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition du genre Mercurialis comprend l'Europe, l'Asie occidentale jusqu'à l'Himalaya et le bassin méditerranéen[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition du genre Mercurialis comprend l'Europe, l'Asie occidentale jusqu'à l'Himalaya et le bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Mercurialis a été décrit par Linné et publié dans son Species plantarum 2: 1035–1036 en 1753[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mercurialis a été décrit par Linné et publié dans son Species plantarum 2: 1035–1036 en 1753.
 L'espèce-type du genre est Mercurialis perennis.
 Étymologie
 Le nom générique Mercurialis fait référence à Mercure, dieu du commerce dans la mythologie romaine, à qui est attribuée la découverte des propriétés médicinales de cette plante.
@@ -582,9 +598,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 juin 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (23 juin 2016) :
 Mercurialis annua L. (1753)
 Mercurialis canariensis Obbard &amp; S.A.Harris (2006)
 Mercurialis corsica Coss. &amp; Kralik (1850)
@@ -597,7 +615,7 @@
 Mercurialis perennis L. (1753)
 Mercurialis reverchonii Rouy (1887)
 Mercurialis tomentosa L. (1753)
-Selon Tropicos                                           (23 juin 2016)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (23 juin 2016) (Attention liste brute contenant possiblement des synonymes) :
 Mercurialis abyssinica Hochst. ex Pax &amp; K.Hoffn.
 Mercurialis acanthocarpa H. Lév. &amp; Vaniot
 Mercurialis afra L.
